--- a/Minggu 3/Excel/Pertemuan 3 - Penguraian Keragaman dan Selang Kepercayaan.xlsx
+++ b/Minggu 3/Excel/Pertemuan 3 - Penguraian Keragaman dan Selang Kepercayaan.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/087db10551668298/Documents/Statistika/Asprak Anreg/Minggu 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb9662855fd3b58c/Documents/Analisis Regresi/Minggu 3/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{D9806245-C9C5-4650-BE5F-9313C56D3A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89FEB614-3CD7-46E1-A65B-D92A549EECBE}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{D9806245-C9C5-4650-BE5F-9313C56D3A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F586E6-C137-4CBA-8572-1B772A710B81}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6749C950-C376-44AF-94D2-40367B02B11D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6749C950-C376-44AF-94D2-40367B02B11D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pertemuan 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Pertemuan 3" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Pertemuan 3'!$Q$29</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Pertemuan 3'!$Q$29</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -204,6 +203,12 @@
   </si>
   <si>
     <t>Lower</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
   </si>
 </sst>
 </file>
@@ -784,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -803,7 +808,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1211,11 +1223,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5668491D-7F44-4D9D-AA4A-178064333C92}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="131" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.47364686893988422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.22434135645655587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.2015278669405722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10">
+        <v>29.40357772398573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>8501.9388345595798</v>
+      </c>
+      <c r="D12" s="10">
+        <v>8501.9388345595798</v>
+      </c>
+      <c r="E12" s="10">
+        <v>9.8337151052396976</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3.5241196638186385E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10">
+        <v>29395.39302099598</v>
+      </c>
+      <c r="D13" s="10">
+        <v>864.57038297046995</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11">
+        <v>37897.33185555556</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10">
+        <v>138.83264143113578</v>
+      </c>
+      <c r="C17" s="10">
+        <v>11.003197756608051</v>
+      </c>
+      <c r="D17" s="10">
+        <v>12.617481254279813</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.2155762940987893E-14</v>
+      </c>
+      <c r="F17" s="10">
+        <v>116.47145320533203</v>
+      </c>
+      <c r="G17" s="10">
+        <v>161.19382965693953</v>
+      </c>
+      <c r="H17" s="10">
+        <v>116.47145320533203</v>
+      </c>
+      <c r="I17" s="10">
+        <v>161.19382965693953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2.1044597874642625</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.67109162733477412</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3.1358754926239789</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3.5241196638186659E-3</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.74063751256407495</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3.4682820623644499</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.74063751256407495</v>
+      </c>
+      <c r="I18" s="11">
+        <v>3.4682820623644499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41E0B2-05D0-4601-8E91-476AACCCFA89}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView topLeftCell="G17" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1549,7 @@
         <f>I2*J2</f>
         <v>-18.423066666666749</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="9"/>
